--- a/data/trans_orig/SE_ADU-Edad-trans_orig.xlsx
+++ b/data/trans_orig/SE_ADU-Edad-trans_orig.xlsx
@@ -770,19 +770,19 @@
         <v>467489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>438646</v>
+        <v>435543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>498998</v>
+        <v>496201</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4861813252274168</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4561849375547987</v>
+        <v>0.4529577719178612</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5189503666549645</v>
+        <v>0.5160409280136773</v>
       </c>
     </row>
     <row r="5">
@@ -825,19 +825,19 @@
         <v>494064</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>462555</v>
+        <v>465352</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>522907</v>
+        <v>526010</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5138186747725833</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4810496333450356</v>
+        <v>0.4839590719863227</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5438150624452014</v>
+        <v>0.5470422280821393</v>
       </c>
     </row>
     <row r="6">
@@ -955,19 +955,19 @@
         <v>625494</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>587414</v>
+        <v>591586</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>661139</v>
+        <v>662017</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4595899297961813</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4316106449492674</v>
+        <v>0.4346758462061031</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4857811626083386</v>
+        <v>0.4864263351669156</v>
       </c>
     </row>
     <row r="8">
@@ -1010,19 +1010,19 @@
         <v>735488</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>699843</v>
+        <v>698965</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>773568</v>
+        <v>769396</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5404100702038187</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5142188373916614</v>
+        <v>0.5135736648330843</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5683893550507328</v>
+        <v>0.5653241537938969</v>
       </c>
     </row>
     <row r="9">
@@ -1140,19 +1140,19 @@
         <v>689744</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>653167</v>
+        <v>650965</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>725982</v>
+        <v>728219</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.519224712453546</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4916897850714311</v>
+        <v>0.4900322491060375</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5465039934462961</v>
+        <v>0.5481879337122099</v>
       </c>
     </row>
     <row r="11">
@@ -1195,19 +1195,19 @@
         <v>638668</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>602430</v>
+        <v>600193</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>675245</v>
+        <v>677447</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.480775287546454</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4534960065537039</v>
+        <v>0.45181206628779</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5083102149285689</v>
+        <v>0.509967750893962</v>
       </c>
     </row>
     <row r="12">
@@ -1325,19 +1325,19 @@
         <v>515642</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>482141</v>
+        <v>482888</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>550112</v>
+        <v>548719</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4983063925781063</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4659320525259735</v>
+        <v>0.4666539690745037</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5316172969951087</v>
+        <v>0.5302712873400732</v>
       </c>
     </row>
     <row r="14">
@@ -1380,19 +1380,19 @@
         <v>519147</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>484677</v>
+        <v>486070</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>552648</v>
+        <v>551901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5016936074218937</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4683827030048912</v>
+        <v>0.4697287126599267</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5340679474740265</v>
+        <v>0.5333460309254964</v>
       </c>
     </row>
     <row r="15">
@@ -1510,19 +1510,19 @@
         <v>403986</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>372943</v>
+        <v>375456</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>429497</v>
+        <v>431579</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5109245168145478</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4716641276321713</v>
+        <v>0.4748429498475179</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5431883277869133</v>
+        <v>0.5458212812582778</v>
       </c>
     </row>
     <row r="17">
@@ -1565,19 +1565,19 @@
         <v>386710</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>361199</v>
+        <v>359117</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>417753</v>
+        <v>415240</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4890754831854523</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.456811672213087</v>
+        <v>0.4541787187417222</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.528335872367829</v>
+        <v>0.5251570501524822</v>
       </c>
     </row>
     <row r="18">
@@ -1695,19 +1695,19 @@
         <v>342934</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>319455</v>
+        <v>316768</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>367715</v>
+        <v>367556</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5396142029701582</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5026700202880765</v>
+        <v>0.4984407306661189</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5786073702409604</v>
+        <v>0.5783577058112349</v>
       </c>
     </row>
     <row r="20">
@@ -1750,19 +1750,19 @@
         <v>292583</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>267802</v>
+        <v>267961</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>316062</v>
+        <v>318749</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4603857970298418</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4213926297590396</v>
+        <v>0.4216422941887649</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4973299797119235</v>
+        <v>0.5015592693338811</v>
       </c>
     </row>
     <row r="21">
@@ -1880,19 +1880,19 @@
         <v>333908</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>310112</v>
+        <v>310998</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>356730</v>
+        <v>356055</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6140373652158373</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5702771253325104</v>
+        <v>0.5719076915427632</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6560062928079441</v>
+        <v>0.654764675545095</v>
       </c>
     </row>
     <row r="23">
@@ -1935,19 +1935,19 @@
         <v>209883</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>187061</v>
+        <v>187736</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>233679</v>
+        <v>232793</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3859626347841627</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.343993707192056</v>
+        <v>0.3452353244549047</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4297228746674899</v>
+        <v>0.4280923084572365</v>
       </c>
     </row>
     <row r="24">
@@ -2065,19 +2065,19 @@
         <v>3379197</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3297677</v>
+        <v>3299665</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3459542</v>
+        <v>3457626</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5077116877680198</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4954635155670608</v>
+        <v>0.4957622900323103</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5197831532487917</v>
+        <v>0.5194952187577856</v>
       </c>
     </row>
     <row r="26">
@@ -2120,19 +2120,19 @@
         <v>3276544</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3196199</v>
+        <v>3198115</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3358064</v>
+        <v>3356076</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4922883122319802</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4802168467512084</v>
+        <v>0.4805047812422146</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5045364844329393</v>
+        <v>0.5042377099676898</v>
       </c>
     </row>
     <row r="27">
@@ -2493,19 +2493,19 @@
         <v>430230</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>401747</v>
+        <v>400807</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>460124</v>
+        <v>457499</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4864784043405463</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4542712134241138</v>
+        <v>0.453208953897321</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5202806020048349</v>
+        <v>0.5173132702218531</v>
       </c>
     </row>
     <row r="5">
@@ -2548,19 +2548,19 @@
         <v>454146</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>424252</v>
+        <v>426877</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>482629</v>
+        <v>483569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5135215956594538</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4797193979951649</v>
+        <v>0.4826867297781468</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5457287865758862</v>
+        <v>0.5467910461026789</v>
       </c>
     </row>
     <row r="6">
@@ -2678,19 +2678,19 @@
         <v>610255</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>573854</v>
+        <v>575382</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>646046</v>
+        <v>647324</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4703888394235634</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4423307805757021</v>
+        <v>0.4435079988340652</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4979765249480317</v>
+        <v>0.4989615377407148</v>
       </c>
     </row>
     <row r="8">
@@ -2733,19 +2733,19 @@
         <v>687087</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>651296</v>
+        <v>650018</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>723488</v>
+        <v>721960</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5296111605764366</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5020234750519683</v>
+        <v>0.5010384622592853</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5576692194242979</v>
+        <v>0.5564920011659349</v>
       </c>
     </row>
     <row r="9">
@@ -2863,19 +2863,19 @@
         <v>710849</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>673073</v>
+        <v>672697</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>748132</v>
+        <v>747195</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5104066705975429</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4832825832957335</v>
+        <v>0.4830123895687638</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5371760465843218</v>
+        <v>0.5365033952007295</v>
       </c>
     </row>
     <row r="11">
@@ -2918,19 +2918,19 @@
         <v>681863</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644580</v>
+        <v>645517</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>719639</v>
+        <v>720015</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4895933294024571</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4628239534156783</v>
+        <v>0.4634966047992705</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5167174167042665</v>
+        <v>0.5169876104312362</v>
       </c>
     </row>
     <row r="12">
@@ -3048,19 +3048,19 @@
         <v>616199</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>577919</v>
+        <v>579798</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>649624</v>
+        <v>652261</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5006428341736373</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.469541111251663</v>
+        <v>0.4710676623023765</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5277997929936201</v>
+        <v>0.5299416411322261</v>
       </c>
     </row>
     <row r="14">
@@ -3103,19 +3103,19 @@
         <v>614617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>581192</v>
+        <v>578555</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>652897</v>
+        <v>651018</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4993571658263627</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4722002070063799</v>
+        <v>0.4700583588677739</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.530458888748337</v>
+        <v>0.5289323376976234</v>
       </c>
     </row>
     <row r="15">
@@ -3233,19 +3233,19 @@
         <v>447800</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>417431</v>
+        <v>416859</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>476973</v>
+        <v>481185</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5104709469810336</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4758516602057196</v>
+        <v>0.4752000311172705</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5437265817829351</v>
+        <v>0.5485285937865554</v>
       </c>
     </row>
     <row r="17">
@@ -3288,19 +3288,19 @@
         <v>429429</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>400256</v>
+        <v>396044</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>459798</v>
+        <v>460370</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4895290530189665</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.456273418217065</v>
+        <v>0.4514714062134447</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5241483397942804</v>
+        <v>0.5247999688827296</v>
       </c>
     </row>
     <row r="18">
@@ -3418,19 +3418,19 @@
         <v>353996</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>325318</v>
+        <v>328827</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>380322</v>
+        <v>381290</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5333014495379274</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4900974502687274</v>
+        <v>0.4953836549637385</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5729623836232496</v>
+        <v>0.5744212454012662</v>
       </c>
     </row>
     <row r="20">
@@ -3473,19 +3473,19 @@
         <v>309786</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>283460</v>
+        <v>282492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>338464</v>
+        <v>334955</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4666985504620726</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4270376163767501</v>
+        <v>0.4255787545987337</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5099025497312726</v>
+        <v>0.5046163450362615</v>
       </c>
     </row>
     <row r="21">
@@ -3603,19 +3603,19 @@
         <v>388979</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>359499</v>
+        <v>362072</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>413310</v>
+        <v>415414</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.608892957928211</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5627461952160113</v>
+        <v>0.5667738426733345</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6469794994273144</v>
+        <v>0.6502739137749076</v>
       </c>
     </row>
     <row r="23">
@@ -3658,19 +3658,19 @@
         <v>249851</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>225520</v>
+        <v>223416</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>279331</v>
+        <v>276758</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.391107042071789</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3530205005726856</v>
+        <v>0.3497260862250925</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4372538047839888</v>
+        <v>0.4332261573266656</v>
       </c>
     </row>
     <row r="24">
@@ -3788,19 +3788,19 @@
         <v>3558309</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3462218</v>
+        <v>3478964</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3642068</v>
+        <v>3642454</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5094150731727236</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4956585206282267</v>
+        <v>0.4980558681132075</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5214062222709707</v>
+        <v>0.521461438052251</v>
       </c>
     </row>
     <row r="26">
@@ -3843,19 +3843,19 @@
         <v>3426779</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3343020</v>
+        <v>3342634</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3522870</v>
+        <v>3506124</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4905849268272763</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4785937777290297</v>
+        <v>0.478538561947749</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5043414793717736</v>
+        <v>0.5019441318867925</v>
       </c>
     </row>
     <row r="27">
@@ -4216,19 +4216,19 @@
         <v>395755</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>364775</v>
+        <v>367080</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>422123</v>
+        <v>422875</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.485459106946983</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4474564510111209</v>
+        <v>0.4502840507099939</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5178044048041935</v>
+        <v>0.5187257422939302</v>
       </c>
     </row>
     <row r="5">
@@ -4271,19 +4271,19 @@
         <v>419463</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>393095</v>
+        <v>392343</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>450443</v>
+        <v>448138</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.514540893053017</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4821955951958065</v>
+        <v>0.4812742577060697</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5525435489888791</v>
+        <v>0.5497159492900062</v>
       </c>
     </row>
     <row r="6">
@@ -4401,19 +4401,19 @@
         <v>563544</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>532299</v>
+        <v>531321</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>599824</v>
+        <v>595850</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4883225106671407</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4612480444086222</v>
+        <v>0.4604008285261733</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5197601261684434</v>
+        <v>0.5163167863964062</v>
       </c>
     </row>
     <row r="8">
@@ -4456,19 +4456,19 @@
         <v>590496</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>554216</v>
+        <v>558190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>621741</v>
+        <v>622719</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5116774893328593</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4802398738315564</v>
+        <v>0.4836832136035937</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5387519555913778</v>
+        <v>0.5395991714738266</v>
       </c>
     </row>
     <row r="9">
@@ -4586,19 +4586,19 @@
         <v>661386</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>623433</v>
+        <v>623478</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>696905</v>
+        <v>695797</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4971024014450972</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4685765183303871</v>
+        <v>0.468610627290334</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5237982131952772</v>
+        <v>0.5229658143313578</v>
       </c>
     </row>
     <row r="11">
@@ -4641,19 +4641,19 @@
         <v>669097</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>633578</v>
+        <v>634686</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>707050</v>
+        <v>707005</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5028975985549029</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4762017868047227</v>
+        <v>0.4770341856686421</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5314234816696128</v>
+        <v>0.5313893727096659</v>
       </c>
     </row>
     <row r="12">
@@ -4771,19 +4771,19 @@
         <v>649077</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>616556</v>
+        <v>610818</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>687141</v>
+        <v>687338</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5011692463219114</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.476058979594927</v>
+        <v>0.4716285403335338</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5305594265299735</v>
+        <v>0.530711769625212</v>
       </c>
     </row>
     <row r="14">
@@ -4826,19 +4826,19 @@
         <v>646048</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>607984</v>
+        <v>607787</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>678569</v>
+        <v>684307</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4988307536780886</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4694405734700261</v>
+        <v>0.469288230374788</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5239410204050728</v>
+        <v>0.5283714596664663</v>
       </c>
     </row>
     <row r="15">
@@ -4956,19 +4956,19 @@
         <v>496849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>464588</v>
+        <v>462497</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>528783</v>
+        <v>529243</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5097105271915411</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4766144582216709</v>
+        <v>0.4744692807172336</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5424711617007006</v>
+        <v>0.5429426863489225</v>
       </c>
     </row>
     <row r="17">
@@ -5011,19 +5011,19 @@
         <v>477918</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>445984</v>
+        <v>445524</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>510179</v>
+        <v>512270</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4902894728084589</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4575288382992992</v>
+        <v>0.4570573136510775</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.523385541778329</v>
+        <v>0.5255307192827664</v>
       </c>
     </row>
     <row r="18">
@@ -5141,19 +5141,19 @@
         <v>377762</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>351057</v>
+        <v>351482</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>404561</v>
+        <v>405393</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5304960619245058</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4929944765907864</v>
+        <v>0.4935906252371204</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.568130268355404</v>
+        <v>0.5692993265275734</v>
       </c>
     </row>
     <row r="20">
@@ -5196,19 +5196,19 @@
         <v>334330</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>307531</v>
+        <v>306699</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>361035</v>
+        <v>360610</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4695039380754942</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.431869731644596</v>
+        <v>0.4307006734724266</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5070055234092136</v>
+        <v>0.5064093747628795</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>400169</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>376652</v>
+        <v>374088</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>425696</v>
+        <v>423244</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6089304531859118</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5731450722097601</v>
+        <v>0.5692439451547513</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6477737547749414</v>
+        <v>0.6440428231460898</v>
       </c>
     </row>
     <row r="23">
@@ -5381,19 +5381,19 @@
         <v>256998</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>231471</v>
+        <v>233923</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>280515</v>
+        <v>283079</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3910695468140883</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3522262452250587</v>
+        <v>0.3559571768539102</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.42685492779024</v>
+        <v>0.4307560548452488</v>
       </c>
     </row>
     <row r="24">
@@ -5511,19 +5511,19 @@
         <v>3544542</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3460482</v>
+        <v>3462388</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3629745</v>
+        <v>3621108</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5108224518013608</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4987081308172479</v>
+        <v>0.4989827848924082</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5231015572603268</v>
+        <v>0.5218568694383164</v>
       </c>
     </row>
     <row r="26">
@@ -5566,19 +5566,19 @@
         <v>3394350</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3309147</v>
+        <v>3317784</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3478410</v>
+        <v>3476504</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4891775481986392</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4768984427396732</v>
+        <v>0.4781431305616837</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5012918691827519</v>
+        <v>0.501017215107592</v>
       </c>
     </row>
     <row r="27">
@@ -5939,19 +5939,19 @@
         <v>362512</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>320226</v>
+        <v>323109</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>407915</v>
+        <v>405221</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4706083398910033</v>
+        <v>0.4706083398910031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4157135478651879</v>
+        <v>0.4194553044730808</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5295505889956136</v>
+        <v>0.526052922479048</v>
       </c>
     </row>
     <row r="5">
@@ -5994,19 +5994,19 @@
         <v>407793</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>362390</v>
+        <v>365084</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>450079</v>
+        <v>447196</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5293916601089969</v>
+        <v>0.5293916601089967</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4704494110043865</v>
+        <v>0.4739470775209519</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.584286452134812</v>
+        <v>0.5805446955269191</v>
       </c>
     </row>
     <row r="6">
@@ -6124,19 +6124,19 @@
         <v>501733</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>464400</v>
+        <v>464330</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>538332</v>
+        <v>536083</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.512692500698348</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4745443261279476</v>
+        <v>0.4744730265797409</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5500914123748015</v>
+        <v>0.5477934511797607</v>
       </c>
     </row>
     <row r="8">
@@ -6179,19 +6179,19 @@
         <v>476890</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>440291</v>
+        <v>442540</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>514223</v>
+        <v>514293</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.487307499301652</v>
+        <v>0.4873074993016521</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4499085876251984</v>
+        <v>0.4522065488202393</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5254556738720523</v>
+        <v>0.5255269734202591</v>
       </c>
     </row>
     <row r="9">
@@ -6309,19 +6309,19 @@
         <v>623192</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>590206</v>
+        <v>588478</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>654867</v>
+        <v>657496</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.5009468447572283</v>
+        <v>0.5009468447572282</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4744307938494274</v>
+        <v>0.4730416267048107</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5264079107067671</v>
+        <v>0.5285218244894782</v>
       </c>
     </row>
     <row r="11">
@@ -6364,19 +6364,19 @@
         <v>620837</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>589162</v>
+        <v>586533</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>653823</v>
+        <v>655551</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4990531552427718</v>
+        <v>0.4990531552427717</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4735920892932337</v>
+        <v>0.471478175510522</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.525569206150573</v>
+        <v>0.5269583732951892</v>
       </c>
     </row>
     <row r="12">
@@ -6494,19 +6494,19 @@
         <v>736887</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>704598</v>
+        <v>702300</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>772280</v>
+        <v>770303</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5126153483665065</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4901535973001601</v>
+        <v>0.4885553633770195</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.53723699429067</v>
+        <v>0.5358615110408973</v>
       </c>
     </row>
     <row r="14">
@@ -6549,19 +6549,19 @@
         <v>700617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>665224</v>
+        <v>667201</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>732906</v>
+        <v>735204</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4873846516334934</v>
+        <v>0.4873846516334935</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4627630057093299</v>
+        <v>0.4641384889591028</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5098464026998398</v>
+        <v>0.5114446366229805</v>
       </c>
     </row>
     <row r="15">
@@ -6679,19 +6679,19 @@
         <v>608855</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>580698</v>
+        <v>578721</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>639561</v>
+        <v>638492</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4997984556186284</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4766845690442137</v>
+        <v>0.475061746021574</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5250041856096538</v>
+        <v>0.5241266904334662</v>
       </c>
     </row>
     <row r="17">
@@ -6734,19 +6734,19 @@
         <v>609347</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>578641</v>
+        <v>579710</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>637504</v>
+        <v>639481</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5002015443813717</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4749958143903463</v>
+        <v>0.4758733095665338</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5233154309557859</v>
+        <v>0.5249382539784259</v>
       </c>
     </row>
     <row r="18">
@@ -6864,19 +6864,19 @@
         <v>439166</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>417154</v>
+        <v>412976</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>461135</v>
+        <v>460588</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.5189581170684153</v>
+        <v>0.5189581170684154</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4929466358575032</v>
+        <v>0.4880098885479829</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5449181125584999</v>
+        <v>0.5442717030592351</v>
       </c>
     </row>
     <row r="20">
@@ -6919,19 +6919,19 @@
         <v>407080</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>385111</v>
+        <v>385658</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>429092</v>
+        <v>433270</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.4810418829315846</v>
+        <v>0.4810418829315847</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4550818874415001</v>
+        <v>0.455728296940765</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5070533641424967</v>
+        <v>0.5119901114520172</v>
       </c>
     </row>
     <row r="21">
@@ -7049,19 +7049,19 @@
         <v>464609</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>442474</v>
+        <v>440446</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>485487</v>
+        <v>486021</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5996445196479312</v>
+        <v>0.5996445196479311</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5710762871193217</v>
+        <v>0.5684590559652555</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6265910123164807</v>
+        <v>0.6272795911705865</v>
       </c>
     </row>
     <row r="23">
@@ -7104,19 +7104,19 @@
         <v>310198</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>289320</v>
+        <v>288786</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>332333</v>
+        <v>334361</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4003554803520688</v>
+        <v>0.4003554803520687</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3734089876835193</v>
+        <v>0.3727204088294135</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4289237128806783</v>
+        <v>0.4315409440347445</v>
       </c>
     </row>
     <row r="24">
@@ -7234,19 +7234,19 @@
         <v>3736954</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3655039</v>
+        <v>3650448</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3832383</v>
+        <v>3818964</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5140440325123284</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.5027759957451888</v>
+        <v>0.5021445456008113</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5271709225496298</v>
+        <v>0.5253250457050592</v>
       </c>
     </row>
     <row r="26">
@@ -7289,19 +7289,19 @@
         <v>3532762</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3437333</v>
+        <v>3450752</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3614677</v>
+        <v>3619268</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.4859559674876716</v>
+        <v>0.4859559674876714</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4728290774503703</v>
+        <v>0.4746749542949408</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4972240042548114</v>
+        <v>0.4978554543991888</v>
       </c>
     </row>
     <row r="27">
